--- a/docs/PST1/PST1_30.07.24v_output.xlsx
+++ b/docs/PST1/PST1_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731602813.0337157</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731602813.6948023</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602813.0337157.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602813.6948023.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>291.39</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>291.45</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731602814.284596</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731602815.0498862</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602814.284596.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602815.0498862.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>291.2</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>291.21</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.009999999999990905</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731602819.7126374</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731602819.9320238</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602819.7126374.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602819.9320238.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>290.67</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>290.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.1700000000000159</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731602821.9030645</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731602822.117587</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602821.9030645.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731602822.117587.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>289.85</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>289.74</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.1100000000000136</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731602828.6967108</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731602830.3513103</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602828.6967108.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602830.3513103.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>132.4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>132.36</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.03999999999999204</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731602830.794796</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731602832.5506215</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602830.794796.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731602832.5506215.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>132.41</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>132.28</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731602832.8325021</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731602835.495094</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602832.8325021.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602835.495094.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6804.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6796.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>8</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731602835.5110283</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731602836.7731478</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602835.5110283.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602836.7731478.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6796.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6808</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>11.5</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731602836.7871103</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731602838.0716267</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602836.7871103.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602838.0716267.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6808</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6804.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>3.5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731602838.086586</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731602839.9645765</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602838.086586.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731602839.9645765.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6804.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6805</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731602842.649775</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731602843.8517468</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602842.649775.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602843.8517468.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>510.45</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>510.3</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731602845.416491</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731602846.6783507</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602845.416491.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602846.6783507.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>510.15</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>511.3</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>1.150000000000034</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731602846.6933026</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731602851.4392977</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602846.6933026.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731602851.4392977.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>511.3</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>511.75</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.4499999999999886</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1215,95 +1309,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731602851.4532602</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731602851.4532602.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731602851.4532602.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>511.75</v>
       </c>
-      <c r="J16" t="n">
-        <v>511.75</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>511.1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.6499999999999773</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731602853.2820811</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731602855.915958</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602853.2820811.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602855.915958.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1049.6</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1043.8</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>5.799999999999955</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731602855.930916</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731602856.7187138</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602855.930916.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602856.7187138.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1043.8</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1047.6</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>3.799999999999955</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731602856.7336416</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731602859.0982413</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602856.7336416.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602859.0982413.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1047.6</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1046</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731602859.1132014</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731602861.927679</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602859.1132014.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731602861.927679.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1046</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1043.2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-2.799999999999955</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -1467,95 +1591,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731602861.9426382</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731602861.9426382.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731602861.9426382.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>1043.2</v>
       </c>
-      <c r="J21" t="n">
-        <v>1043.2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1047.2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731602863.4318511</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731602867.6792297</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602863.4318511.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731602867.6792297.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>127.34</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>127.66</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1563,139 +1699,157 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731602870.3953288</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731602870.3953288.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731602870.3953288.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>127.48</v>
       </c>
-      <c r="J23" t="n">
-        <v>127.48</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>127.38</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.1000000000000085</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731602879.9180555</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731602879.9180555.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731602879.9180555.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>165.74</v>
       </c>
-      <c r="J24" t="n">
-        <v>165.74</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>165.68</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.06000000000000227</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731602880.4254258</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731602882.6436806</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602880.4254258.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602882.6436806.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>51.77</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>51.595</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.1750000000000043</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -1703,51 +1857,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731602884.0228505</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731602888.7599976</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602884.0228505.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602888.7599976.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>51.66</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>51.445</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.2149999999999963</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -1755,51 +1915,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731602888.77493</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731602889.0706818</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602888.77493.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731602889.0706818.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>51.445</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>51.37</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.07500000000000284</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1807,95 +1973,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731602897.018076</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731602897.018076.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731602897.018076.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1419.6</v>
       </c>
-      <c r="J28" t="n">
-        <v>1419.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1420</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.4000000000000909</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731602899.6361313</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731602901.2153254</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602899.6361313.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602901.2153254.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>60.54</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>60.57</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1903,51 +2081,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731602905.469475</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731602905.9036694</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602905.469475.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602905.9036694.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>60.61</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>60.49</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.1199999999999974</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -1955,51 +2139,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731602907.1583295</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731602907.4805033</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602907.1583295.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731602907.4805033.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>60.41</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>60.39</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2007,95 +2197,107 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731602916.183253</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731602916.183253.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731602916.183253.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>141.2</v>
       </c>
-      <c r="J32" t="n">
-        <v>141.2</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>140.78</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.4199999999999875</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731602917.1378367</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731602917.7939806</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602917.1378367.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602917.7939806.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>54.08</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>53.95</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -2103,51 +2305,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731602917.8089411</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731602924.0191934</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602917.8089411.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602924.0191934.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>53.95</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>53.9</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.05000000000000426</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2155,51 +2363,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731602926.1969426</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731602926.291607</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602926.1969426.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731602926.291607.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>53.62</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>53.62</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2207,51 +2421,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731602927.1896844</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731602933.832287</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602927.1896844.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602933.832287.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>375.62</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>373.14</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-2.480000000000018</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.66</v>
       </c>
     </row>
@@ -2259,51 +2479,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731602933.848218</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731602934.3858745</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602933.848218.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731602934.3858745.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>373.14</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>371.97</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>1.169999999999959</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2311,51 +2537,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731602941.6856165</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731602942.5061743</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602941.6856165.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602942.5061743.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>3025.4</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>3025.15</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2363,51 +2595,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731602943.3528368</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731602945.6184719</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602943.3528368.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602945.6184719.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>3019.5</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>3020.9</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2415,51 +2653,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731602945.6344023</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731602945.883965</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602945.6344023.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MXI1731602945.883965.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>3020.9</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>3018.55</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>2.349999999999909</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2467,51 +2711,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731602947.9429877</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731602948.5481517</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602947.9429877.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602948.5481517.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>34.55</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>34.49</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.05999999999999517</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2519,51 +2769,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731602948.5631113</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731602949.1741178</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602948.5631113.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602949.1741178.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>34.49</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>34.44</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.05000000000000426</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2571,51 +2827,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731602950.0666878</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731602954.0699928</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602950.0666878.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602954.0699928.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>34.525</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>34.495</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.03000000000000114</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2623,51 +2885,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731602954.085952</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731602955.920057</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602954.085952.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731602955.920057.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>34.495</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>34.465</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.02999999999999403</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2675,44 +2943,50 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731602955.935017</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731602955.935017.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731602955.935017.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>34.465</v>
       </c>
-      <c r="J45" t="n">
-        <v>34.465</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>34.53</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.06499999999999773</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.19</v>
       </c>
     </row>
   </sheetData>
@@ -2773,19 +3047,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.399999999999864</v>
+        <v>4.399999999999864</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.679999999999973</v>
+        <v>0.8799999999999727</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7899999999999999</v>
+        <v>0.4099999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -2795,19 +3069,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.0099999999999838</v>
+        <v>-0.07499999999998153</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.00199999999999676</v>
+        <v>-0.0149999999999963</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.03</v>
+        <v>-0.22</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="4">
@@ -2839,19 +3113,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8500000000000227</v>
+        <v>0.2000000000000455</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2125000000000057</v>
+        <v>0.05000000000001137</v>
       </c>
       <c r="E5" t="n">
-        <v>0.17</v>
+        <v>0.03999999999999998</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -3015,19 +3289,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3199999999999932</v>
+        <v>0.2199999999999847</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1599999999999966</v>
+        <v>0.1099999999999923</v>
       </c>
       <c r="E13" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="F13" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14">
@@ -3037,19 +3311,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.4000000000000909</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="15">
@@ -3059,19 +3333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="16">
@@ -3081,19 +3355,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0.4199999999999875</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.4199999999999875</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="17">
